--- a/data/data23.xlsx
+++ b/data/data23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Sentiment_analysis_learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Thesis\GIT\Thesis_relevant\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D000F60-722F-41A2-831F-EA4D6C96A78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8661E8B3-F768-45D0-8AC7-10FB88ED99B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExportComments.com" sheetId="1" r:id="rId1"/>
@@ -816,15 +816,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
@@ -835,7 +837,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -843,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -851,7 +853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -859,7 +861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -867,7 +869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -875,7 +877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -883,7 +885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -891,7 +893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -899,7 +901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -907,7 +909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -915,7 +917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -923,7 +925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -931,7 +933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -939,7 +941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -950,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -961,7 +963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -969,7 +971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -977,7 +979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -988,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -996,7 +998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1015,7 +1017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1031,7 +1033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1039,7 +1041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1047,7 +1049,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1055,7 +1057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1063,7 +1065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1071,7 +1073,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1082,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1090,7 +1092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -1098,7 +1100,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1106,7 +1108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1114,7 +1116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1122,7 +1124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1130,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1138,7 +1140,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1149,7 +1151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -1160,7 +1162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -1168,7 +1170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1179,7 +1181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -1190,7 +1192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -1206,7 +1208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -1214,7 +1216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -1222,7 +1224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -1233,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -1241,7 +1243,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -1252,7 +1254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -1260,7 +1262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -1268,7 +1270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -1276,7 +1278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -1284,7 +1286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -1292,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -1303,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -1311,7 +1313,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -1338,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -1346,7 +1348,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>89</v>
       </c>
@@ -1354,7 +1356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -1365,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -1373,7 +1375,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -1392,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>95</v>
       </c>
@@ -1414,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -1425,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>99</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>102</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>105</v>
       </c>
@@ -1468,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -1479,7 +1481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -1487,7 +1489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>110</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>111</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>112</v>
       </c>
@@ -1511,7 +1513,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -1519,7 +1521,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>116</v>
       </c>
@@ -1530,7 +1532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>118</v>
       </c>
@@ -1538,7 +1540,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>119</v>
       </c>
@@ -1546,7 +1548,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>121</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -1568,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>122</v>
       </c>
@@ -1576,7 +1578,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>124</v>
       </c>
@@ -1584,7 +1586,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -1592,7 +1594,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>128</v>
       </c>
@@ -1600,7 +1602,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>129</v>
       </c>
@@ -1611,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -1622,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>131</v>
       </c>
@@ -1633,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>133</v>
       </c>
@@ -1644,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>134</v>
       </c>
@@ -1655,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>135</v>
       </c>
@@ -1663,7 +1665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>136</v>
       </c>
@@ -1674,7 +1676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>138</v>
       </c>
@@ -1682,7 +1684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>139</v>
       </c>
@@ -1690,7 +1692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>140</v>
       </c>
@@ -1701,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>141</v>
       </c>
@@ -1712,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>142</v>
       </c>
